--- a/output/0/tRNA-Thr-AGT-6-1.xlsx
+++ b/output/0/tRNA-Thr-AGT-6-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>27129593</t>
-  </si>
-  <si>
-    <t>27129616</t>
+    <t>27130070</t>
+  </si>
+  <si>
+    <t>27130093</t>
   </si>
   <si>
     <t>0</t>
@@ -29,133 +29,109 @@
     <t>+</t>
   </si>
   <si>
-    <t>27129613</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
+    <t>27130090</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
   </si>
   <si>
     <t>255,0,0</t>
   </si>
   <si>
-    <t>TTTAGTTGGTTAGTTTGTTT</t>
+    <t>AAAGCGCCTGTCTAGTAAAC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>32% (44)</t>
+  </si>
+  <si>
+    <t>63% (51)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>27130076</t>
+  </si>
+  <si>
+    <t>27130099</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>27130079</t>
+  </si>
+  <si>
+    <t>GGATCTCCTGTTTACTAGAC</t>
+  </si>
+  <si>
+    <t>46% (49)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>27130102</t>
+  </si>
+  <si>
+    <t>GTCTAGTAAACAGGAGATCC</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>2% (18)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
+    <t>23% (40)</t>
+  </si>
+  <si>
+    <t>4% (14)</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>27130080</t>
+  </si>
+  <si>
+    <t>27130103</t>
+  </si>
+  <si>
+    <t>27130100</t>
+  </si>
+  <si>
+    <t>TCTAGTAAACAGGAGATCCT</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>86% (62)</t>
+  </si>
+  <si>
+    <t>65% (52)</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 2%, Moreno-Mateos: 46%</t>
-  </si>
-  <si>
-    <t>27130070</t>
-  </si>
-  <si>
-    <t>27130093</t>
-  </si>
-  <si>
-    <t>27130090</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>AAAGCGCCTGTCTAGTAAAC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>32% (44)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>27130076</t>
-  </si>
-  <si>
-    <t>27130099</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>27130079</t>
-  </si>
-  <si>
-    <t>GGATCTCCTGTTTACTAGAC</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>27130102</t>
-  </si>
-  <si>
-    <t>GTCTAGTAAACAGGAGATCC</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>4% (14)</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>27130080</t>
-  </si>
-  <si>
-    <t>27130103</t>
-  </si>
-  <si>
-    <t>27130100</t>
-  </si>
-  <si>
-    <t>TCTAGTAAACAGGAGATCCT</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>65% (52)</t>
-  </si>
-  <si>
-    <t>28</t>
   </si>
   <si>
     <t>27130095</t>
@@ -227,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -271,22 +247,22 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -297,40 +273,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
@@ -345,7 +321,7 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -356,55 +332,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
@@ -415,10 +391,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -427,43 +403,43 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>3</v>
       </c>
       <c r="Q4" t="s">
         <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
         <v>3</v>
@@ -492,10 +468,10 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
@@ -507,7 +483,7 @@
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
@@ -519,71 +495,12 @@
         <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
         <v>3</v>
       </c>
     </row>
